--- a/src/main/resources/inputData.xlsx
+++ b/src/main/resources/inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Hernández\Desktop\Principal\San Buenaventura\semestre 6\Calidad y pruebas\Final\ProyectoFinalPruebas\USB_STORE\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4140006E-5404-40BE-A4E1-32138D18783F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCBF6B-08BE-451B-A633-4802EA262BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{20975BC3-1F85-494C-80B2-270F1F4A7BCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{20975BC3-1F85-494C-80B2-270F1F4A7BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939BDC9-59F3-49E9-86FE-C7719F716C0E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70907698-5123-40C5-B753-E8073EA98C36}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/inputData.xlsx
+++ b/src/main/resources/inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Hernández\Desktop\Principal\San Buenaventura\semestre 6\Calidad y pruebas\Final\ProyectoFinalPruebas\USB_STORE\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCBF6B-08BE-451B-A633-4802EA262BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0CAAD4-B6B9-4EAF-B399-6EC4AF53A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{20975BC3-1F85-494C-80B2-270F1F4A7BCF}"/>
+    <workbookView xWindow="9996" yWindow="168" windowWidth="13044" windowHeight="12336" activeTab="2" xr2:uid="{20975BC3-1F85-494C-80B2-270F1F4A7BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>subcategoria</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Torres</t>
   </si>
   <si>
-    <t>sofia.5678901@test.com</t>
-  </si>
-  <si>
     <t>Test321!</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Salazar</t>
   </si>
   <si>
-    <t>mateo.8901234@test.com</t>
-  </si>
-  <si>
     <t>Pass789#</t>
   </si>
   <si>
@@ -137,16 +131,16 @@
     <t>exito</t>
   </si>
   <si>
-    <t>claveErr</t>
-  </si>
-  <si>
-    <t>fallo</t>
-  </si>
-  <si>
-    <t>usuario.noexiste@test.com</t>
-  </si>
-  <si>
-    <t>cualquier</t>
+    <t>3carla.1234567@test.com</t>
+  </si>
+  <si>
+    <t>3diego.7654321@test.com</t>
+  </si>
+  <si>
+    <t>3sofia.5678901@test.com</t>
+  </si>
+  <si>
+    <t>3mateo.8901234@test.com</t>
   </si>
 </sst>
 </file>
@@ -630,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939BDC9-59F3-49E9-86FE-C7719F716C0E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -660,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -671,37 +665,23 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="mailto:carla.1234567@test.com" xr:uid="{5346590C-EA67-4FE5-8160-2411A37C8811}"/>
     <hyperlink ref="A3" r:id="rId2" display="mailto:diego.7654321@test.com" xr:uid="{CF5AC637-D2B7-4202-8656-26B6E365A71A}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:sofia.5678901@test.com" xr:uid="{2814B6D3-8FD0-4237-9EC7-DE31AC4C9E3E}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:usuario.noexiste@test.com" xr:uid="{2DC4F1D9-26E8-404B-852F-EBC583C33008}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -711,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70907698-5123-40C5-B753-E8073EA98C36}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>3112345678</v>
@@ -766,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>3209876543</v>
@@ -783,38 +763,38 @@
         <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>3011239876</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>3124567890</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:carla.1234567@test.com" xr:uid="{D3FA9A09-AB44-4380-BF69-B838C281D06E}"/>
-    <hyperlink ref="C3" r:id="rId2" display="mailto:diego.7654321@test.com" xr:uid="{5F1C24BC-1836-4D87-A034-8FDD2CE1F32A}"/>
-    <hyperlink ref="C4" r:id="rId3" display="mailto:sofia.5678901@test.com" xr:uid="{F4B2F58D-94E8-4E09-B0EB-86021723D31B}"/>
-    <hyperlink ref="C5" r:id="rId4" display="mailto:mateo.8901234@test.com" xr:uid="{D9DB3C49-DF82-4B4E-85E0-1ADE2BD1C3A5}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3FA9A09-AB44-4380-BF69-B838C281D06E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5F1C24BC-1836-4D87-A034-8FDD2CE1F32A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F4B2F58D-94E8-4E09-B0EB-86021723D31B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D9DB3C49-DF82-4B4E-85E0-1ADE2BD1C3A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
